--- a/list_unique_continuous_indicators.xlsx
+++ b/list_unique_continuous_indicators.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7477,7 +7477,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8127,7 +8127,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9247,7 +9247,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9475,7 +9475,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9760,7 +9760,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9874,7 +9874,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -10159,7 +10159,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10558,7 +10558,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10957,7 +10957,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -12312,7 +12312,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -12587,7 +12587,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12632,7 +12632,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12722,7 +12722,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12812,7 +12812,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12857,7 +12857,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12902,7 +12902,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -13082,7 +13082,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -13182,7 +13182,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -13237,7 +13237,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -13292,7 +13292,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -13347,7 +13347,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -13402,7 +13402,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -13452,7 +13452,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -13502,7 +13502,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13552,7 +13552,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13602,7 +13602,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13702,7 +13702,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13802,7 +13802,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13897,7 +13897,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -14107,7 +14107,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -14197,7 +14197,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -14302,7 +14302,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -14357,7 +14357,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -14412,7 +14412,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -14467,7 +14467,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -14522,7 +14522,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -14572,7 +14572,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14622,7 +14622,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14672,7 +14672,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14822,7 +14822,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14922,7 +14922,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -15122,7 +15122,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -15217,7 +15217,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -15262,7 +15262,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -15307,7 +15307,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -15362,7 +15362,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -15472,7 +15472,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -15527,7 +15527,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -15572,7 +15572,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -15617,7 +15617,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15662,7 +15662,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15713,7 +15713,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15813,7 +15813,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15858,7 +15858,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15908,7 +15908,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15958,7 +15958,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -16008,7 +16008,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -16058,7 +16058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -16153,7 +16153,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -17188,7 +17188,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -17303,7 +17303,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -17353,7 +17353,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -17453,7 +17453,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -17503,7 +17503,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -17553,7 +17553,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -17653,7 +17653,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -17703,7 +17703,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17853,7 +17853,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -18155,7 +18155,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -18611,7 +18611,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -18716,7 +18716,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18836,7 +18836,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -19016,7 +19016,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -19076,7 +19076,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -19196,7 +19196,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -19256,7 +19256,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -19316,7 +19316,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -19376,7 +19376,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -19436,7 +19436,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -19496,7 +19496,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -19616,7 +19616,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -19676,7 +19676,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -19736,7 +19736,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -19781,7 +19781,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -19871,7 +19871,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -19916,7 +19916,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19967,7 +19967,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -20018,7 +20018,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -20069,7 +20069,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -20120,7 +20120,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -20175,7 +20175,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -20230,7 +20230,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -20285,7 +20285,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -20330,7 +20330,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -20375,7 +20375,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -20420,7 +20420,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -20465,7 +20465,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -20555,7 +20555,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -20600,7 +20600,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -20645,7 +20645,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -20700,7 +20700,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -20745,7 +20745,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -20835,7 +20835,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -20885,7 +20885,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20981,7 +20981,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -21026,7 +21026,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -21076,7 +21076,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -21126,7 +21126,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -21226,7 +21226,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -21276,7 +21276,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -21376,7 +21376,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -21426,7 +21426,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -21477,7 +21477,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -21532,7 +21532,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -21587,7 +21587,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -21642,7 +21642,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -21697,7 +21697,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -21742,7 +21742,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -21787,7 +21787,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -21877,7 +21877,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -21922,7 +21922,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -21967,7 +21967,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -22012,7 +22012,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -22107,7 +22107,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -22152,7 +22152,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -22202,7 +22202,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -22302,7 +22302,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -22402,7 +22402,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -22452,7 +22452,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -22502,7 +22502,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -22602,7 +22602,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -22758,7 +22758,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -22808,7 +22808,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -22858,7 +22858,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -22909,7 +22909,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -22959,7 +22959,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -23009,7 +23009,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -23054,7 +23054,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -23294,7 +23294,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -23339,7 +23339,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -23429,7 +23429,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -23474,7 +23474,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -23519,7 +23519,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -23569,7 +23569,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -23619,7 +23619,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -23669,7 +23669,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -23719,7 +23719,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -23829,7 +23829,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -23994,7 +23994,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -24049,7 +24049,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -24104,7 +24104,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -24159,7 +24159,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -24265,7 +24265,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -24310,7 +24310,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -24355,7 +24355,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -24400,7 +24400,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -24445,7 +24445,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -24490,7 +24490,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -24535,7 +24535,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -24580,7 +24580,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -24630,7 +24630,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -24731,7 +24731,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -24776,7 +24776,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -24831,7 +24831,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -24876,7 +24876,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -24931,7 +24931,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -24986,7 +24986,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -25096,7 +25096,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -25151,7 +25151,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -25412,7 +25412,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -25463,7 +25463,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -25514,7 +25514,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -25565,7 +25565,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -25655,7 +25655,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -25700,7 +25700,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -25745,7 +25745,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -26015,7 +26015,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -26060,7 +26060,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -26105,7 +26105,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -26635,7 +26635,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -26691,7 +26691,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -26747,7 +26747,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -26903,7 +26903,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -26958,7 +26958,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -27003,7 +27003,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -27048,7 +27048,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -27093,7 +27093,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -27138,7 +27138,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -27183,7 +27183,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -27338,7 +27338,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -27389,7 +27389,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -27442,7 +27442,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -27493,7 +27493,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -27544,7 +27544,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -27595,7 +27595,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -27646,7 +27646,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -27697,7 +27697,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -27748,7 +27748,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -27799,7 +27799,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -27850,7 +27850,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -27896,7 +27896,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -27942,7 +27942,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -27993,7 +27993,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -28038,7 +28038,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -28083,7 +28083,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -28128,7 +28128,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -28173,7 +28173,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -28218,7 +28218,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -28263,7 +28263,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -28308,7 +28308,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -28353,7 +28353,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -28398,7 +28398,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -28443,7 +28443,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -28488,7 +28488,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -28533,7 +28533,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -28583,7 +28583,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -28628,7 +28628,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -28673,7 +28673,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -28718,7 +28718,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -28763,7 +28763,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -28808,7 +28808,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -28853,7 +28853,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -28898,7 +28898,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -28988,7 +28988,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -29033,7 +29033,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -29083,7 +29083,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -29133,7 +29133,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -29183,7 +29183,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -29233,7 +29233,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -29283,7 +29283,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -29338,7 +29338,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -29393,7 +29393,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -29448,7 +29448,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -29493,7 +29493,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -29538,7 +29538,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -29633,7 +29633,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -29683,7 +29683,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -30094,7 +30094,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -30139,7 +30139,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -30184,7 +30184,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -30229,7 +30229,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -30274,7 +30274,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -30319,7 +30319,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -30364,7 +30364,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -30609,7 +30609,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -30654,7 +30654,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -30699,7 +30699,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -30744,7 +30744,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -30789,7 +30789,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -30844,7 +30844,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -30899,7 +30899,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -30949,7 +30949,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -31004,7 +31004,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -31059,7 +31059,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -31114,7 +31114,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -31169,7 +31169,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -31224,7 +31224,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -31279,7 +31279,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -31334,7 +31334,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -31389,7 +31389,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -31444,7 +31444,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -31499,7 +31499,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -31554,7 +31554,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -31609,7 +31609,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -31664,7 +31664,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -31719,7 +31719,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -31774,7 +31774,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -31824,7 +31824,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -31879,7 +31879,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -31934,7 +31934,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -31989,7 +31989,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -32044,7 +32044,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -32099,7 +32099,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -32154,7 +32154,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -32209,7 +32209,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -32264,7 +32264,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -32319,7 +32319,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -32374,7 +32374,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -32429,7 +32429,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -32484,7 +32484,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -32539,7 +32539,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -32589,7 +32589,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -32639,7 +32639,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -32689,7 +32689,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -32739,7 +32739,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -32784,7 +32784,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -32829,7 +32829,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -32874,7 +32874,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
